--- a/artfynd/A 10400-2022.xlsx
+++ b/artfynd/A 10400-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99426637</v>
+        <v>99426622</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626058.8445098634</v>
+        <v>626015.2164001387</v>
       </c>
       <c r="R2" t="n">
-        <v>7010453.642544731</v>
+        <v>7010979.93372071</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99426643</v>
+        <v>99426637</v>
       </c>
       <c r="B3" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625950.5816682897</v>
+        <v>626058.8445098634</v>
       </c>
       <c r="R3" t="n">
-        <v>7010469.289106234</v>
+        <v>7010453.642544731</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99426638</v>
+        <v>99426643</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625948.7751551091</v>
+        <v>625950.5816682897</v>
       </c>
       <c r="R4" t="n">
-        <v>7010469.218583253</v>
+        <v>7010469.289106234</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99426616</v>
+        <v>99426638</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,39 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626303.9086833318</v>
+        <v>625948.7751551091</v>
       </c>
       <c r="R5" t="n">
-        <v>7010513.817294765</v>
+        <v>7010469.218583253</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99426608</v>
+        <v>99426616</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,34 +1149,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625848.4141095353</v>
+        <v>626303.9086833318</v>
       </c>
       <c r="R6" t="n">
-        <v>7010491.0488934</v>
+        <v>7010513.817294765</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1245,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99426622</v>
+        <v>99426608</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,42 +1266,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626015.2164001387</v>
+        <v>625848.4141095353</v>
       </c>
       <c r="R7" t="n">
-        <v>7010979.93372071</v>
+        <v>7010491.0488934</v>
       </c>
       <c r="S7" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>

--- a/artfynd/A 10400-2022.xlsx
+++ b/artfynd/A 10400-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99426622</v>
+        <v>99426637</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626015.2164001387</v>
+        <v>626058.8445098634</v>
       </c>
       <c r="R2" t="n">
-        <v>7010979.93372071</v>
+        <v>7010453.642544731</v>
       </c>
       <c r="S2" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99426637</v>
+        <v>99426643</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626058.8445098634</v>
+        <v>625950.5816682897</v>
       </c>
       <c r="R3" t="n">
-        <v>7010453.642544731</v>
+        <v>7010469.289106234</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99426643</v>
+        <v>99426638</v>
       </c>
       <c r="B4" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625950.5816682897</v>
+        <v>625948.7751551091</v>
       </c>
       <c r="R4" t="n">
-        <v>7010469.289106234</v>
+        <v>7010469.218583253</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99426638</v>
+        <v>99426616</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625948.7751551091</v>
+        <v>626303.9086833318</v>
       </c>
       <c r="R5" t="n">
-        <v>7010469.218583253</v>
+        <v>7010513.817294765</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99426616</v>
+        <v>99426608</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,39 +1149,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626303.9086833318</v>
+        <v>625848.4141095353</v>
       </c>
       <c r="R6" t="n">
-        <v>7010513.817294765</v>
+        <v>7010491.0488934</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99426608</v>
+        <v>99426622</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,37 +1261,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ö Korpberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625848.4141095353</v>
+        <v>626015.2164001387</v>
       </c>
       <c r="R7" t="n">
-        <v>7010491.0488934</v>
+        <v>7010979.93372071</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
